--- a/Poupanca_2013_2023.xlsx
+++ b/Poupanca_2013_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\EngenhariaEconomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D599EED-4ADE-4276-A015-AC2A9640C683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23491099-FED0-4E0C-BA20-FDECB0933A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A6DB496D-E670-4C19-9F53-BB473865F513}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6DB496D-E670-4C19-9F53-BB473865F513}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>Ano</t>
   </si>
@@ -267,15 +267,108 @@
   </si>
   <si>
     <t>0.6858</t>
+  </si>
+  <si>
+    <t>0.5607</t>
+  </si>
+  <si>
+    <t>0.5882</t>
+  </si>
+  <si>
+    <t>0.6132</t>
+  </si>
+  <si>
+    <t>0.4134</t>
+  </si>
+  <si>
+    <t>0.5169</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.6302</t>
+  </si>
+  <si>
+    <t>0.5267</t>
+  </si>
+  <si>
+    <t>0.6079</t>
+  </si>
+  <si>
+    <t>0.5461</t>
+  </si>
+  <si>
+    <t>0.6159</t>
+  </si>
+  <si>
+    <t>0.6822</t>
+  </si>
+  <si>
+    <t>0.5467</t>
+  </si>
+  <si>
+    <t>0.4551</t>
+  </si>
+  <si>
+    <t>0.7317</t>
+  </si>
+  <si>
+    <t>0.6059</t>
+  </si>
+  <si>
+    <t>0.4761</t>
+  </si>
+  <si>
+    <t>0.6876</t>
+  </si>
+  <si>
+    <t>0.5605</t>
+  </si>
+  <si>
+    <t>0.4828</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.5877</t>
+  </si>
+  <si>
+    <t>0.5079</t>
+  </si>
+  <si>
+    <t>0.6799</t>
+  </si>
+  <si>
+    <t>0.6043</t>
+  </si>
+  <si>
+    <t>0.5925</t>
+  </si>
+  <si>
+    <t>0.6303</t>
+  </si>
+  <si>
+    <t>0.5485</t>
+  </si>
+  <si>
+    <t>0.5208</t>
+  </si>
+  <si>
+    <t>0.7261</t>
+  </si>
+  <si>
+    <t>0.6058</t>
+  </si>
+  <si>
+    <t>0.5496</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,9 +400,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,102 +737,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB61C1D7-EA48-4C54-A60F-B75A38085B86}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="1">
@@ -747,44 +840,44 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <f>A2-1</f>
         <v>2022</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="1">
@@ -792,44 +885,44 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <f t="shared" ref="A4:A12" si="0">A3-1</f>
         <v>2021</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N4" s="1">
@@ -837,44 +930,44 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N5" s="1">
@@ -882,44 +975,44 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="N6" s="1">
@@ -927,44 +1020,44 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N7" s="1">
@@ -972,44 +1065,44 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N8" s="1">
@@ -1017,44 +1110,44 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="N9" s="1">
@@ -1062,139 +1155,142 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.58819999999999995</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.51690000000000003</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.63019999999999998</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.6079</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.6159</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.68220000000000003</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.73170000000000002</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.68759999999999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.67989999999999995</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.63029999999999997</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.72609999999999997</v>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="N10" s="1">
         <v>8.15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.61319999999999997</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.52669999999999995</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.54610000000000003</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.56069999999999998</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.54669999999999996</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.60589999999999999</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.5605</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.5877</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.60429999999999995</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.54849999999999999</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.60580000000000001</v>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="N11" s="1">
         <v>7.16</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.41339999999999999</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.41339999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.41339999999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.41339999999999999</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.42730000000000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.4551</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.47610000000000002</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.48280000000000001</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.50790000000000002</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.59250000000000003</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.54959999999999998</v>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="N12" s="1">
         <v>6.37</v>
       </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
